--- a/data/trans_camb/IMC_inf_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_R2-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,52</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,48</t>
+          <t>-14,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,78</t>
+          <t>27,24</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,39</t>
+          <t>-3,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 1,4</t>
+          <t>-16,39; 10,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 11,62</t>
+          <t>-11,88; 17,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,45; -1,16</t>
+          <t>-27,78; 2,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 19,16</t>
+          <t>-0,05; 26,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,67; 33,72</t>
+          <t>13,67; 41,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 17,82</t>
+          <t>-10,17; 24,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 7,02</t>
+          <t>-3,49; 16,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 18,47</t>
+          <t>5,12; 25,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 3,42</t>
+          <t>-15,23; 8,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,88%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-33,68%</t>
+          <t>-28,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>-8,37%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 3,28</t>
+          <t>-29,64; 22,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,21; 30,01</t>
+          <t>-21,49; 40,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,23; -2,9</t>
+          <t>-51,52; 5,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 77,27</t>
+          <t>0,04; 106,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 140,19</t>
+          <t>39,5; 166,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,84; 72,0</t>
+          <t>-28,76; 91,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 21,51</t>
+          <t>-7,84; 47,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 54,75</t>
+          <t>10,66; 73,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 10,17</t>
+          <t>-35,03; 21,63</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,15</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-6,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 1,67</t>
+          <t>-2,38; 9,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -0,21</t>
+          <t>-10,09; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -1,81</t>
+          <t>-12,19; -0,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 9,4</t>
+          <t>0,95; 13,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 2,17</t>
+          <t>-7,45; 3,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -1,9</t>
+          <t>-11,97; -0,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 3,72</t>
+          <t>0,62; 8,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -0,91</t>
+          <t>-7,52; 0,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; -3,1</t>
+          <t>-10,14; -1,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,75%</t>
+          <t>-12,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,44%</t>
+          <t>-16,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-17,93%</t>
+          <t>-14,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 3,94</t>
+          <t>-4,82; 20,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,83; -0,21</t>
+          <t>-19,99; 4,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -4,31</t>
+          <t>-23,68; -0,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 29,93</t>
+          <t>2,9; 41,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 6,82</t>
+          <t>-19,25; 11,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,83; -5,54</t>
+          <t>-31,05; 0,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 10,07</t>
+          <t>1,42; 22,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -2,4</t>
+          <t>-17,17; 1,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,83; -7,9</t>
+          <t>-23,06; -4,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,17</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,81</t>
+          <t>-13,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-7,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 20,81</t>
+          <t>5,81; 25,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 14,24</t>
+          <t>1,0; 19,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 4,59</t>
+          <t>-12,32; 6,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 8,29</t>
+          <t>-6,67; 12,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,29; -0,22</t>
+          <t>-16,63; 0,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -6,03</t>
+          <t>-22,49; -4,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 12,22</t>
+          <t>2,72; 16,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,61</t>
+          <t>-4,88; 8,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -2,46</t>
+          <t>-14,22; -0,87</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>46,98%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-21,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-39,76%</t>
+          <t>-36,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>-22,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,03; 81,02</t>
+          <t>15,32; 88,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 56,32</t>
+          <t>1,71; 67,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 18,17</t>
+          <t>-31,78; 24,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 26,85</t>
+          <t>-16,94; 37,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,28; -0,67</t>
+          <t>-41,08; 3,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -19,25</t>
+          <t>-53,86; -13,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 41,67</t>
+          <t>6,85; 50,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 19,54</t>
+          <t>-12,89; 25,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,13; -8,47</t>
+          <t>-36,93; -2,7</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-6,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,46</t>
+          <t>0,34; 9,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,57</t>
+          <t>-5,42; 3,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -2,53</t>
+          <t>-11,32; -1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,36</t>
+          <t>2,24; 11,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 2,1</t>
+          <t>-5,17; 4,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -2,87</t>
+          <t>-10,95; -2,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,23</t>
+          <t>2,59; 9,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,79</t>
+          <t>-3,44; 3,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; -3,95</t>
+          <t>-9,75; -2,74</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>-14,98%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 8,48</t>
+          <t>0,73; 22,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 4,31</t>
+          <t>-11,16; 8,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,37; -6,01</t>
+          <t>-23,95; -3,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 23,57</t>
+          <t>6,15; 34,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 6,78</t>
+          <t>-13,78; 12,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,15; -8,82</t>
+          <t>-29,77; -6,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,56</t>
+          <t>6,24; 23,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 2,19</t>
+          <t>-8,15; 7,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -10,7</t>
+          <t>-23,24; -6,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IMC_inf_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-15,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,61</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 27,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,31; 41,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,2; 27,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; 10,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,42; 17,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,48; -0,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 14,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,02; 25,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,25; 9,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,05%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,35; 109,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,15; 167,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,45; 96,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,44; 25,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,7; 40,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,38; -0,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,83; 41,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,69; 69,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 24,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,12</t>
+          <t>-7,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,24</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-6,11</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-6,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 10,24</t>
+          <t>0,68; 12,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 17,69</t>
+          <t>-7,48; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 2,1</t>
+          <t>-13,54; -0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 26,73</t>
+          <t>-3,06; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 41,5</t>
+          <t>-10,49; 1,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 24,47</t>
+          <t>-12,57; 0,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 16,7</t>
+          <t>0,96; 9,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 25,88</t>
+          <t>-7,36; 0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 8,08</t>
+          <t>-11,07; -1,35</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>-4,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,21%</t>
+          <t>-19,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>-9,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>-12,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>-15,49%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 22,19</t>
+          <t>1,88; 39,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 40,74</t>
+          <t>-19,58; 12,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 5,12</t>
+          <t>-36,5; -3,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 106,99</t>
+          <t>-6,07; 19,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,5; 166,39</t>
+          <t>-20,47; 2,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 91,21</t>
+          <t>-24,94; 1,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 47,1</t>
+          <t>2,0; 22,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 73,38</t>
+          <t>-16,63; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,03; 21,63</t>
+          <t>-25,51; -3,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-7,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-13,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>15,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,34</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-7,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 9,28</t>
+          <t>-6,89; 12,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 1,97</t>
+          <t>-17,01; 1,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -0,14</t>
+          <t>-22,63; -4,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,54</t>
+          <t>6,2; 25,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 3,84</t>
+          <t>-0,09; 20,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,97; -0,02</t>
+          <t>-12,71; 6,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 8,98</t>
+          <t>2,7; 16,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 0,58</t>
+          <t>-5,13; 8,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -1,71</t>
+          <t>-14,62; -0,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,14%</t>
+          <t>-21,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,37%</t>
+          <t>-36,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>46,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,31%</t>
+          <t>-8,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,86%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>-22,57%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 20,13</t>
+          <t>-17,89; 38,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 4,38</t>
+          <t>-41,21; 4,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -0,1</t>
+          <t>-54,59; -13,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 41,24</t>
+          <t>16,09; 95,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 11,99</t>
+          <t>-0,02; 73,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 0,17</t>
+          <t>-33,26; 21,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 22,23</t>
+          <t>6,48; 53,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 1,27</t>
+          <t>-13,93; 26,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,06; -4,07</t>
+          <t>-38,19; -1,87</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,73</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-7,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,33</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>-6,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 25,42</t>
+          <t>2,48; 11,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 19,95</t>
+          <t>-4,92; 4,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 6,82</t>
+          <t>-12,89; -2,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 12,13</t>
+          <t>0,39; 10,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 0,93</t>
+          <t>-5,13; 4,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -4,47</t>
+          <t>-11,87; -1,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 16,28</t>
+          <t>2,52; 9,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 8,11</t>
+          <t>-3,78; 2,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,22; -0,87</t>
+          <t>-10,58; -2,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,98%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-21,8%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,62%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-16,13%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,32; 88,52</t>
+          <t>6,62; 35,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,71; 67,19</t>
+          <t>-13,21; 13,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 24,07</t>
+          <t>-34,8; -6,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 37,06</t>
+          <t>0,37; 23,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 3,18</t>
+          <t>-10,85; 10,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,86; -13,12</t>
+          <t>-25,02; -2,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,85; 50,85</t>
+          <t>6,13; 24,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 25,42</t>
+          <t>-9,02; 6,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,93; -2,7</t>
+          <t>-25,18; -7,4</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,12</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-6,28</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-6,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 9,57</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; 3,76</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-11,32; -1,38</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,24; 11,58</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 4,18</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; -2,03</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 9,04</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,03</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-9,75; -2,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>11,15%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-13,47%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>19,61%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1,04%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-17,83%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>14,79%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-14,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 22,19</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 8,74</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-23,95; -3,28</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 34,92</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-13,78; 12,59</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-29,77; -6,12</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 23,11</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 7,56</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-23,24; -6,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
